--- a/auto/config/twzw/shortUrlMatch.xlsx
+++ b/auto/config/twzw/shortUrlMatch.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="x" localSheetId="0">Sheet1!$A$2:$B$400</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="984">
   <si>
     <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_A.html</t>
   </si>
@@ -2623,6 +2623,372 @@
   </si>
   <si>
     <t>http://a.de0.cc/e2uQba</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22A.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/bI7n6r</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22B.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/VnIjey</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22C.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/iamyQn</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22D.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/mUN7va</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22E.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/NnqQBz</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22F.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/JFRjA3</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22G.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/Qz6Vri</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22H.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/EvaQby</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22I.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/iIZNZf</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22J.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/IRfy6z</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22K.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/iyE3qe</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22L.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/2aQ7fy</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22M.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/2Av2uq</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22N.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/riQ7ze</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22O.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/vaqqay</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22P.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/ZryaQj</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22Q.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/Q3QV7v</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22R.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/rquQ3m</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22S.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/fUjyEr</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22T.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/RNRbya</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22U.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/nYrY3i</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22V.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/RbEJZv</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22W.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/RRruQv</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22X.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/vU3MFf</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22Y.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/NJ3mum</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_22Z.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/FfUzEj</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23A.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/BrieEz</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23B.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/imIbIr</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23C.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/Q3uiqa</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23D.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/VZFVJv</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23E.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/vQJzEv</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23F.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/2yQvi2</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23G.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/7ZfIn2</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23H.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/UNN7bm</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23I.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/nEJnEb</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23J.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/JVBBzm</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23K.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/jqiIvy</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23L.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/jyuyme</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23M.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/BFNFf2</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23N.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/3MFVfa</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23O.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/BzmArq</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23P.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/iuIjMn</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23Q.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/BJBZVn</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23R.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/mQvuua</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23S.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/zam6Vv</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23T.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/a6zeUr</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23U.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/feIZbe</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23V.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/6Fbeqm</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23W.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/fAB7Bj</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23X.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/BF32Yf</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_23Y.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/AJNjma</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_32Q.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/F3maQ3</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_32R.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/JvqEJj</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24D.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/IJ7Zza</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24E.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/2YJbiq</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24F.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/773Qvm</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24G.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/auA3qu</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24H.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/MzqARf</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24I.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/rqyMru</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24J.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/naAVba</t>
+  </si>
+  <si>
+    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_24K.html</t>
+  </si>
+  <si>
+    <t>http://a.de0.cc/NRFnU3</t>
   </si>
 </sst>
 </file>
@@ -3005,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B434"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="F489" sqref="F489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6487,6 +6853,494 @@
       </c>
       <c r="B434" s="2" t="s">
         <v>861</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -6527,8 +7381,69 @@
     <hyperlink ref="A432" r:id="rId33"/>
     <hyperlink ref="A433" r:id="rId34"/>
     <hyperlink ref="A434" r:id="rId35"/>
+    <hyperlink ref="A435" r:id="rId36" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17A.html"/>
+    <hyperlink ref="A461" r:id="rId37" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17A.html"/>
+    <hyperlink ref="A436" r:id="rId38" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17B.html"/>
+    <hyperlink ref="A462" r:id="rId39" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17B.html"/>
+    <hyperlink ref="A437" r:id="rId40" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17C.html"/>
+    <hyperlink ref="A463" r:id="rId41" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17C.html"/>
+    <hyperlink ref="A438" r:id="rId42" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17D.html"/>
+    <hyperlink ref="A464" r:id="rId43" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17D.html"/>
+    <hyperlink ref="A439" r:id="rId44" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17E.html"/>
+    <hyperlink ref="A465" r:id="rId45" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17E.html"/>
+    <hyperlink ref="A440" r:id="rId46" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17F.html"/>
+    <hyperlink ref="A466" r:id="rId47" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17F.html"/>
+    <hyperlink ref="A441" r:id="rId48"/>
+    <hyperlink ref="A467" r:id="rId49"/>
+    <hyperlink ref="A442" r:id="rId50" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17H.html"/>
+    <hyperlink ref="A468" r:id="rId51" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17H.html"/>
+    <hyperlink ref="A443" r:id="rId52" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_18I.html"/>
+    <hyperlink ref="A469" r:id="rId53" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_18I.html"/>
+    <hyperlink ref="A444" r:id="rId54" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17J.html"/>
+    <hyperlink ref="A470" r:id="rId55" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17J.html"/>
+    <hyperlink ref="A445" r:id="rId56" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17K.html"/>
+    <hyperlink ref="A471" r:id="rId57" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17K.html"/>
+    <hyperlink ref="A446" r:id="rId58" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17L.html"/>
+    <hyperlink ref="A472" r:id="rId59" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17L.html"/>
+    <hyperlink ref="A447" r:id="rId60" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17M.html"/>
+    <hyperlink ref="A473" r:id="rId61" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17M.html"/>
+    <hyperlink ref="A448" r:id="rId62" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17N.html"/>
+    <hyperlink ref="A474" r:id="rId63" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17N.html"/>
+    <hyperlink ref="A449" r:id="rId64" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17O.html"/>
+    <hyperlink ref="A475" r:id="rId65" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17O.html"/>
+    <hyperlink ref="A450" r:id="rId66" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17P.html"/>
+    <hyperlink ref="A476" r:id="rId67" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17P.html"/>
+    <hyperlink ref="A451" r:id="rId68" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17Q.html"/>
+    <hyperlink ref="A477" r:id="rId69" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17Q.html"/>
+    <hyperlink ref="A452" r:id="rId70" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17R.html"/>
+    <hyperlink ref="A478" r:id="rId71" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17R.html"/>
+    <hyperlink ref="A453" r:id="rId72" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17S.html"/>
+    <hyperlink ref="A479" r:id="rId73" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17S.html"/>
+    <hyperlink ref="A454" r:id="rId74" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17T.html"/>
+    <hyperlink ref="A480" r:id="rId75" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17T.html"/>
+    <hyperlink ref="A455" r:id="rId76" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17U.html"/>
+    <hyperlink ref="A481" r:id="rId77" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17U.html"/>
+    <hyperlink ref="A456" r:id="rId78" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17V.html"/>
+    <hyperlink ref="A482" r:id="rId79" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17V.html"/>
+    <hyperlink ref="A457" r:id="rId80" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17W.html"/>
+    <hyperlink ref="A483" r:id="rId81" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17W.html"/>
+    <hyperlink ref="A458" r:id="rId82" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17X.html"/>
+    <hyperlink ref="A484" r:id="rId83" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17X.html"/>
+    <hyperlink ref="A459" r:id="rId84" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17Y.html"/>
+    <hyperlink ref="A485" r:id="rId85" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17Y.html"/>
+    <hyperlink ref="A460" r:id="rId86" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17Z.html"/>
+    <hyperlink ref="A486" r:id="rId87" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_32Q.html"/>
+    <hyperlink ref="A487" r:id="rId88" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_32R.html"/>
+    <hyperlink ref="A488" r:id="rId89" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17D.html"/>
+    <hyperlink ref="A489" r:id="rId90" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17E.html"/>
+    <hyperlink ref="A490" r:id="rId91" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17F.html"/>
+    <hyperlink ref="A491" r:id="rId92"/>
+    <hyperlink ref="A492" r:id="rId93" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17H.html"/>
+    <hyperlink ref="A493" r:id="rId94" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_18I.html"/>
+    <hyperlink ref="A494" r:id="rId95" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17J.html"/>
+    <hyperlink ref="A495" r:id="rId96" tooltip="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_17K.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>